--- a/Assignment Datasets/Short_List.xlsx
+++ b/Assignment Datasets/Short_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hackerman\Dropbox\Psychological_Measurement\Assignment Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E618E879-9701-450F-9ABF-5DCD17EDE6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE6E695-D24B-4CA1-9A8F-4F63BA5AD7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="2085" windowWidth="16650" windowHeight="11385" xr2:uid="{08F8A5EE-0D31-42C5-8B85-7EDA186AF7C5}"/>
+    <workbookView xWindow="2910" yWindow="1470" windowWidth="16650" windowHeight="11385" xr2:uid="{08F8A5EE-0D31-42C5-8B85-7EDA186AF7C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Personality</t>
   </si>
@@ -140,21 +140,6 @@
     <t>Personality/Demog</t>
   </si>
   <si>
-    <t>Mental Health</t>
-  </si>
-  <si>
-    <t>Depression &amp; Anxiety</t>
-  </si>
-  <si>
-    <t>DASS</t>
-  </si>
-  <si>
-    <t>Answers to the Depression Anxiety Stress Scales.</t>
-  </si>
-  <si>
-    <t>personality/Demog</t>
-  </si>
-  <si>
     <t>Interests</t>
   </si>
   <si>
@@ -171,13 +156,25 @@
   </si>
   <si>
     <t>NEO-PI</t>
+  </si>
+  <si>
+    <t>Link to Page</t>
+  </si>
+  <si>
+    <t>NEOPI</t>
+  </si>
+  <si>
+    <t>HSN</t>
+  </si>
+  <si>
+    <t>Demographics, location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +186,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -339,11 +344,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -361,11 +376,276 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -376,6 +656,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{30A7F464-61EB-43B9-89C4-ED712BF6BF8E}" name="Table3" displayName="Table3" ref="A1:K8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:K8" xr:uid="{30A7F464-61EB-43B9-89C4-ED712BF6BF8E}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{7EBF50AF-5D18-4190-8525-3A4102B003D9}" name="Construct(s)" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2E7B9646-000A-40F9-B483-F3F2B00C3489}" name="Sub-Factors" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{07A7913E-ADFE-423B-ACAB-07E7969E7F54}" name="Scale" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{4168AE23-F1F5-4529-929B-7244887D3192}" name="Desc" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{7D77E827-FC8C-4215-A00B-6043F527CBFA}" name="Items" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{0E57A66C-06B5-40E9-85F7-5C7E56279A3E}" name="N" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{7069BBA9-40E2-4C76-9BC0-0078B36F2CE2}" name="Covariates" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{322E5DF3-D342-4917-A470-F71C96175004}" name="Date" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{4579A170-4611-4602-B7C6-559D6DE4E05E}" name="Paper" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{C35A2A16-D73B-4C50-B6C1-24CE142E9B5F}" name="Dataset" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{C9DE6795-51D8-425A-AE37-D3F3D21AAA18}" name="Link to Page" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,15 +975,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A21EFB-444E-4C66-96BB-C14D31C4BCC6}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -714,8 +1021,11 @@
       <c r="J1" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="K1" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,8 +1056,11 @@
       <c r="J2" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="K2" s="18" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -778,8 +1091,11 @@
       <c r="J3" s="8" t="b">
         <v>1</v>
       </c>
+      <c r="K3" s="18" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,21 +1103,32 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19720</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,8 +1159,11 @@
       <c r="J5" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="K5" s="18" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -864,8 +1194,11 @@
       <c r="J6" s="8" t="b">
         <v>1</v>
       </c>
+      <c r="K6" s="18" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -894,72 +1227,58 @@
       <c r="J7" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="K7" s="18" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="6">
-        <v>42</v>
-      </c>
-      <c r="F8" s="6">
-        <v>39775</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="E8" s="13">
+        <v>22</v>
+      </c>
+      <c r="F8" s="13">
+        <v>9881</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="7">
-        <v>43313</v>
-      </c>
-      <c r="I8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="13">
-        <v>22</v>
-      </c>
-      <c r="F9" s="13">
-        <v>9881</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="H8" s="15">
         <v>42583</v>
       </c>
-      <c r="I9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="16" t="b">
-        <v>1</v>
+      <c r="I8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{38304B34-AE93-412F-9ADE-E7819BEC8435}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{2EAACDAE-708E-468C-9A8C-9D0EFEE7844D}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{666EEE0A-4259-459C-8C45-86FB38F2198F}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{F8B91692-1D2F-49B3-8762-A102494788DF}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{EEE727B6-A2E6-4DEF-91F2-18A8AD5F4950}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{B499C82A-601A-4B02-9153-4646378294B9}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{07607E13-1A1B-4C92-B5B3-AC038356FB31}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId8"/>
+  </tableParts>
 </worksheet>
 </file>